--- a/biology/Biologie cellulaire et moléculaire/Institut_Max-Planck_de_biologie_cellulaire/Institut_Max-Planck_de_biologie_cellulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Institut_Max-Planck_de_biologie_cellulaire/Institut_Max-Planck_de_biologie_cellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Max-Planck de biologie cellulaire était un des instituts de la Société Max-Planck.
-En 1947 a été fondé  l'Institut Kaiser-Wilhelm de biologie marine[1]. Après la création de la Société Max-Planck qui succéda à la société Kaiser-Wilhelm , l'Institut porta le nom d'Institut Max-Planck de biologie marine et fut renommé en 1968 Institut Max-Planck de biologie cellulaire. Au départ situé à Wilhelmshaven, le centre de recherche fut relocalisé, en 1977, à Ladenburg, près de Heidelberg, Allemagne. Il cessa ses activités le 1er juillet 2003.
+En 1947 a été fondé  l'Institut Kaiser-Wilhelm de biologie marine. Après la création de la Société Max-Planck qui succéda à la société Kaiser-Wilhelm , l'Institut porta le nom d'Institut Max-Planck de biologie marine et fut renommé en 1968 Institut Max-Planck de biologie cellulaire. Au départ situé à Wilhelmshaven, le centre de recherche fut relocalisé, en 1977, à Ladenburg, près de Heidelberg, Allemagne. Il cessa ses activités le 1er juillet 2003.
 </t>
         </is>
       </c>
